--- a/medicine/Enfance/Léonce_Bourliaguet/Léonce_Bourliaguet.xlsx
+++ b/medicine/Enfance/Léonce_Bourliaguet/Léonce_Bourliaguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9once_Bourliaguet</t>
+          <t>Léonce_Bourliaguet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léonce Bourliaguet, né le 6 janvier 1895 à Thiviers (Dordogne) et mort le 26 mars 1965 à Malemort-sur-Corrèze, est un  enseignant français, auteur de livres pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9once_Bourliaguet</t>
+          <t>Léonce_Bourliaguet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léonce Bourliaguet devient instituteur puis directeur d'école. À dix-neuf ans, il est incorporé au 49e régiment d'infanterie ; il est fait prisonnier à Verdun le 17 avril 1916[1].
-En 1929, à l'âge de trente-quatre ans, il devient le plus jeune inspecteur de France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léonce Bourliaguet devient instituteur puis directeur d'école. À dix-neuf ans, il est incorporé au 49e régiment d'infanterie ; il est fait prisonnier à Verdun le 17 avril 1916.
+En 1929, à l'âge de trente-quatre ans, il devient le plus jeune inspecteur de France.
 Bourliaguet a été un auteur imaginatif et prolifique pour la jeunesse, dont les ouvrages ont contribué à former la sensibilité de deux générations.[réf. nécessaire] Il a également rédigé un ouvrage de conseils aux jeunes instituteurs sous forme de fiction dialoguée, humoristique et distanciée, mettant en scène le personnage de l'instituteur omniprésent dans la « trilogie des gangsters », M. Sabahu : Propos pédagogiques matinaux de M. Sabahu. Il a écrit plusieurs ouvrages se rapportant à son expérience de la Première Guerre mondiale et de sa captivité.
 On retrouve fréquemment son nom dans les manuels de lecture des années 1950-1960, comme Toute une année de lecture au cours élémentaire.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9once_Bourliaguet</t>
+          <t>Léonce_Bourliaguet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,22 +559,24 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste exhaustive. La première date est celle de la première édition.
-1934 : La Conversion de M. Sabahu[3], Éditions Nathan
-1934 : Quatre du cours moyen, ou les Joyeux Gangsters de la Mardondon[4], éditions Bourrelier, coll. « Primevère », dessins de l'auteur ; réédition Magnard (1967 et 1981), illustrations de Patrice Harispe Prix Jeunesse 1934
-1935 : Le Franzmann[5], Guillemot-Lamothe ; réédité en 1967 chez Magnard
+1934 : La Conversion de M. Sabahu, Éditions Nathan
+1934 : Quatre du cours moyen, ou les Joyeux Gangsters de la Mardondon, éditions Bourrelier, coll. « Primevère », dessins de l'auteur ; réédition Magnard (1967 et 1981), illustrations de Patrice Harispe Prix Jeunesse 1934
+1935 : Le Franzmann, Guillemot-Lamothe ; réédité en 1967 chez Magnard
 1935 : La Forêt sereine, Magnard ; rééditions Nelson (1937), Magnard (1954)
 1935 : Les Aventures du petit rat Justin, éditions Société universitaire d’éditions et de librairie (SUDEL)
 1935 : La Geste des Bestes, Bestions et Bestioles, éditions Willaump
-1936 :  Les Aventures de Flosco (Trois étoiles filantes, Trois balles sifflantes, Trois voiles claquantes), éditions SUDEL[6] ; réédition Magnard (1951 et 1981) Prix Sobrier-Arnould 1937[7] de l'Académie Française pour Trois étoiles filantes, de la trilogie Flosco.
+1936 :  Les Aventures de Flosco (Trois étoiles filantes, Trois balles sifflantes, Trois voiles claquantes), éditions SUDEL ; réédition Magnard (1951 et 1981) Prix Sobrier-Arnould 1937 de l'Académie Française pour Trois étoiles filantes, de la trilogie Flosco.
 1937 : La Forêt sereine, éditions Bibliothèque Nelson illustrée no 9, illustrations de Jacques Souriau
 1939 : Sept Peaux de bêtes, éditions SUDEL
 1941 : Contes pour Toutou et Bizou, éditions Eyboulet
 1942 : Justin chez les Hommes, éditions SUDEL, illustrations de Édouard Bernard
 1942 : Contes du Chabridou, éditions Charles-Lavauzelle, illustrations de Gaston Jacquement
-1943 : Contes de Jeannot Lapin[8], éditions Charles-Lavauzelle, illustrations de Gaston Jacquement
+1943 : Contes de Jeannot Lapin, éditions Charles-Lavauzelle, illustrations de Gaston Jacquement
 1944 : Contes de mon Père le Jars, éditions Hachette, coll. « Bibliothèque rose illustrée », illustrations de Jean Routier
 1945 : Par monts et par vaux, éditions SUDEL, illustrations de Bresson
 1945 : Contes du Mille-pattes, éditions Les Nouvelles Presses françaises
@@ -574,7 +590,7 @@
 1949 : Les Fléaux du Vervelu, éditions Les Nouvelles Presses françaises, illustrations de Raylambert
 1950 : Mitou-les-yeux-verts, éditions Hachette, coll. « Jeunesse du monde », broché, 253 p. ; réédité chez Hachette, coll. « Idéal-Bibliothèque », 1979
 1951 : Les Aventures de Poc-Anach, éditions Hachette Jeunesse, coll. « Les grands romanciers », illustrations de P. Hives
-1951 : Le Berceau périgourdin (recueil de contes[9]), Charles-Lavauzelle &amp; Cie éditeurs, Paris, illustré en couleurs
+1951 : Le Berceau périgourdin (recueil de contes), Charles-Lavauzelle &amp; Cie éditeurs, Paris, illustré en couleurs
 1952 : La Maison qui chante, éditions Hachette, coll. « Bibliothèque de la jeunesse », illustrations d'Albert Chazelle
 1953 : Les Farauds de la Mardondon, éditions SUDEL
 1953 : Hototogisu, le rossignol de Minuit, éditions Magnard, illustrations de Paulette Lagosse d'après des dessins de l'auteur
@@ -582,11 +598,11 @@
 1954 : Castandour, éditions Magnard, illustrations de Paulette Lagosse
 1954 : La Villa des grillons, éditions Hachette, coll. « Bibliothèque verte », illustrations de Albert Chazelle Prix Eugène le Roy 1958.
 1954 : Contes de Mitou, éditions Hachette
-1955 : Pouk et ses loups-garous, éditions Magnard, illustrations de Pierre Rousseau Prix Enfance du monde 1956[10].
+1955 : Pouk et ses loups-garous, éditions Magnard, illustrations de Pierre Rousseau Prix Enfance du monde 1956.
 1956 : D'un veau, d'un saint, d'un poète, illustrations de Régine Macary
 1957 : La Montagne endormie, éditions Magnard, illustrations de Marcel Jacquemin
 1958 : La Dette d'Henri, éditions Hachette, coll. « Bibliothèque verte » no 45, illustrations de Philippe Daure
-1958 : Les Compagnons de l'Arc, éditions Magnard, coll. « Fantasia », illustrations de Simone Deleuil Prix Fantasia, 1959[10].
+1958 : Les Compagnons de l'Arc, éditions Magnard, coll. « Fantasia », illustrations de Simone Deleuil Prix Fantasia, 1959.
 1958 : Ce beau temps-là, Éditions GP, coll. « Rouge et Or dauphine », illustré par Mixie-Béret
 1959 : Contes de l'île lumineuse, éditions Bias
 1959 : Contes de la Chevillette, éditions Bias, coll. « Anémones » no 274
@@ -601,16 +617,11 @@
 1963 : De sel et de poivre, éditions Magnard
 1963 : Clarinet le Patagon, éditions Magnard, illustrations de F. Lesourt
 1963 : Un village au bord de la mer, éditions Magnard, illustrations de Nadiken
-1964 : Les Canons de Valmy, Société nouvelle des éditions G. P., illustrations de René Péron Prix européen de littérature enfantine de la ville de Caorle, 1966[10].
+1964 : Les Canons de Valmy, Société nouvelle des éditions G. P., illustrations de René Péron Prix européen de littérature enfantine de la ville de Caorle, 1966.
 1964 : Le Parc aux Prèles, éditions Desclée de Brouwer ; réédition Les Amis de Léonce Bourliaguet, 2017
 1964 : Contes du Fileur de Verre, éditions Desclée de Brouwer, illustrations d'Étienne Morel
 1965 : Marie Mon-homme, éditions Les Amis du Nord-Périgord
-1965 : La Nuit des deux Roses, Société nouvelle des éditions G. P., illustrations de Michel Gourlier
-Éditions posthumes
-1968 : L'Homme et le Vent, Presses de la Cité, éditions G. P., coll. « Spirale », illustrations de Michel Gourlier
-1986 : Les Évangiles gaillards : la sagesse de Sartrillon, Treignac, éditions Les Monédières
-2004 : Le Château des Cent Guerres, éditions Les Amis de Léonce Bourliaguet
-2020 : Quatre du cours moyen, passages choisis et adaptés par Bruno Vizerie[11], illustrations de Francis Pralong, textes d'après Léonce Bourliaguet, édité par l'association Les Amis de Léonce Bourliaguet, Beaumontois-en-Périgord, éditions Secrets de pays  (ISBN 978-2-491344-01-6)</t>
+1965 : La Nuit des deux Roses, Société nouvelle des éditions G. P., illustrations de Michel Gourlier</t>
         </is>
       </c>
     </row>
@@ -620,7 +631,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9once_Bourliaguet</t>
+          <t>Léonce_Bourliaguet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -635,19 +646,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix Jeunesse 1934 pour Quatre du cours moyen, ou les Joyeux Gangsters de la Mardondon
-Prix de l'Enfance 1935 des Nouvelles littéraires pour Petit Œuf
-Prix Sobrier-Arnould 1937[7] de l'Académie Française pour Trois étoiles filantes, de la trilogie Flosco
-Prix Enfance du monde 1956[10] pour Pouk et ses loups-garous, illustrations de Pierre Rousseau
-Prix Eugène le Roy 1958 pour La Villa des grillons
-Prix Fantasia 1959[10] pour Les Compagnons de l'Arc
-Prix Européen de littérature enfantine de la ville de Caorle 1966[10] pour Les Canons de Valmy, illustrations de René Péron
-(international) « Honor List » 1966[12], de l' IBBY, pour Les Canons de Valmy, illustrations de René Péron</t>
+          <t>Éditions posthumes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1968 : L'Homme et le Vent, Presses de la Cité, éditions G. P., coll. « Spirale », illustrations de Michel Gourlier
+1986 : Les Évangiles gaillards : la sagesse de Sartrillon, Treignac, éditions Les Monédières
+2004 : Le Château des Cent Guerres, éditions Les Amis de Léonce Bourliaguet
+2020 : Quatre du cours moyen, passages choisis et adaptés par Bruno Vizerie, illustrations de Francis Pralong, textes d'après Léonce Bourliaguet, édité par l'association Les Amis de Léonce Bourliaguet, Beaumontois-en-Périgord, éditions Secrets de pays  (ISBN 978-2-491344-01-6)</t>
         </is>
       </c>
     </row>
@@ -657,7 +670,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9once_Bourliaguet</t>
+          <t>Léonce_Bourliaguet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,10 +685,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Jeunesse 1934 pour Quatre du cours moyen, ou les Joyeux Gangsters de la Mardondon
+Prix de l'Enfance 1935 des Nouvelles littéraires pour Petit Œuf
+Prix Sobrier-Arnould 1937 de l'Académie Française pour Trois étoiles filantes, de la trilogie Flosco
+Prix Enfance du monde 1956 pour Pouk et ses loups-garous, illustrations de Pierre Rousseau
+Prix Eugène le Roy 1958 pour La Villa des grillons
+Prix Fantasia 1959 pour Les Compagnons de l'Arc
+Prix Européen de littérature enfantine de la ville de Caorle 1966 pour Les Canons de Valmy, illustrations de René Péron
+(international) « Honor List » 1966, de l' IBBY, pour Les Canons de Valmy, illustrations de René Péron</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Léonce_Bourliaguet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9once_Bourliaguet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un collège et plusieurs rues en France portent son nom : à Brive, Champagnac-la-Prune, Malemort-sur-Corrèze, Thiviers et Franconville.
 </t>
